--- a/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,43</t>
+          <t>64,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,72</t>
+          <t>61,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>63,76</t>
+          <t>62,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,46</t>
+          <t>59,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,16</t>
+          <t>72,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,85</t>
+          <t>68,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,99</t>
+          <t>70,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,4</t>
+          <t>69,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,96</t>
+          <t>69,3</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>64,31</t>
+          <t>65,97</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>66,94</t>
+          <t>67,04</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,59</t>
+          <t>65,01</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,62; 69,02</t>
+          <t>62,94; 66,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,22; 62,23</t>
+          <t>58,93; 64,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,17; 65,22</t>
+          <t>60,41; 64,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,43; 53,44</t>
+          <t>55,52; 62,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,91; 73,28</t>
+          <t>71,15; 73,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,86; 71,75</t>
+          <t>66,54; 69,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,77; 70,01</t>
+          <t>68,99; 71,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,51; 62,02</t>
+          <t>66,03; 73,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,85; 70,93</t>
+          <t>68,33; 70,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,77; 66,92</t>
+          <t>64,48; 67,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,99; 67,9</t>
+          <t>65,82; 68,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,34; 57,82</t>
+          <t>62,51; 67,57</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,3</t>
+          <t>51,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,03</t>
+          <t>45,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,46</t>
+          <t>46,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,98</t>
+          <t>45,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,2</t>
+          <t>53,57</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,69</t>
+          <t>48,26</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>47,13</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,82</t>
+          <t>48,75</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,76</t>
+          <t>52,69</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>47,11</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,82</t>
+          <t>46,99</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,87</t>
+          <t>46,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,27; 51,25</t>
+          <t>51,14; 52,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,68; 46,39</t>
+          <t>44,33; 48,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,46; 46,38</t>
+          <t>45,97; 47,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,26; 50,7</t>
+          <t>43,81; 46,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,29; 50,25</t>
+          <t>52,81; 54,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,41; 50,01</t>
+          <t>44,37; 55,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,77; 49,99</t>
+          <t>46,15; 48,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,1; 52,54</t>
+          <t>47,31; 50,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,04; 50,47</t>
+          <t>52,1; 53,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,93; 47,87</t>
+          <t>44,96; 52,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,03; 47,64</t>
+          <t>46,32; 47,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,33; 51,34</t>
+          <t>45,88; 47,93</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,85</t>
+          <t>49,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>49,59</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46,6</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>46,97</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>48,82</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>46,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>46,3</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44,18</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>45,48</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>45,04</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>46,59</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47,73</t>
+          <t>47,86</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>47,98</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45,33</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>46,14</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>46,87</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>47,55</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,56; 51,33</t>
+          <t>47,9; 50,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,62; 48,32</t>
+          <t>47,8; 51,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,56; 50,16</t>
+          <t>45,47; 47,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,7; 49,99</t>
+          <t>45,69; 48,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,48; 46,94</t>
+          <t>46,1; 47,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,34; 46,72</t>
+          <t>44,98; 47,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,88; 46,07</t>
+          <t>43,09; 45,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,76; 47,43</t>
+          <t>44,26; 46,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,85; 48,58</t>
+          <t>47,1; 48,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,35; 47,03</t>
+          <t>46,87; 49,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,93; 47,67</t>
+          <t>44,54; 46,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,85; 48,16</t>
+          <t>45,26; 46,97</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,53</t>
+          <t>52,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,67</t>
+          <t>48,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,06</t>
+          <t>49,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>47,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>55,06</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,74</t>
+          <t>51,46</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,97</t>
+          <t>50,44</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,34</t>
+          <t>50,87</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,5</t>
+          <t>54,01</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>49,29</t>
+          <t>50,03</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,07</t>
+          <t>49,8</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,21</t>
+          <t>49,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,64; 54,18</t>
+          <t>52,24; 53,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,66; 48,7</t>
+          <t>47,33; 49,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,29; 49,78</t>
+          <t>48,41; 49,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,43; 50,66</t>
+          <t>46,73; 48,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,67; 54,24</t>
+          <t>54,38; 55,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,62; 51,81</t>
+          <t>49,44; 55,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,23; 52,52</t>
+          <t>49,7; 51,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,76; 52,89</t>
+          <t>49,72; 51,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,96; 54,03</t>
+          <t>53,59; 54,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 50,08</t>
+          <t>48,91; 53,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,53; 51,06</t>
+          <t>49,33; 50,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,76; 51,63</t>
+          <t>48,67; 50,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en años</t>
+          <t>Edad media en años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,71</t>
+          <t>63,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,49</t>
+          <t>72,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,3</t>
+          <t>68,84</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,94; 66,18</t>
+          <t>61,93; 65,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,93; 64,15</t>
+          <t>59,06; 64,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,52; 62,92</t>
+          <t>55,38; 62,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>71,15; 73,73</t>
+          <t>71,16; 73,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,54; 69,7</t>
+          <t>66,42; 69,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,03; 73,03</t>
+          <t>66,13; 72,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,33; 70,36</t>
+          <t>67,69; 69,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64,48; 67,32</t>
+          <t>64,21; 67,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,51; 67,57</t>
+          <t>62,42; 67,5</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,85</t>
+          <t>50,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,57</t>
+          <t>53,19</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,69</t>
+          <t>51,87</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,14; 52,63</t>
+          <t>49,81; 51,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,33; 48,22</t>
+          <t>44,25; 48,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,81; 46,51</t>
+          <t>43,78; 46,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,81; 54,45</t>
+          <t>52,39; 53,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,37; 55,26</t>
+          <t>44,5; 55,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,31; 50,22</t>
+          <t>47,36; 50,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,1; 53,2</t>
+          <t>51,31; 52,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,96; 52,38</t>
+          <t>44,97; 51,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,88; 47,93</t>
+          <t>45,99; 47,94</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,03</t>
+          <t>48,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,95</t>
+          <t>47,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47,86</t>
+          <t>47,69</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,9; 50,16</t>
+          <t>47,14; 49,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,8; 51,06</t>
+          <t>47,86; 51,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,69; 48,4</t>
+          <t>45,63; 48,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,1; 47,88</t>
+          <t>46,35; 48,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,98; 47,58</t>
+          <t>44,94; 47,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,26; 46,67</t>
+          <t>44,37; 46,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,1; 48,6</t>
+          <t>47,05; 48,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,87; 49,12</t>
+          <t>46,87; 49,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,26; 46,97</t>
+          <t>45,26; 47,03</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,87</t>
+          <t>51,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,06</t>
+          <t>54,42</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,01</t>
+          <t>53,04</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,24; 53,48</t>
+          <t>50,92; 52,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,33; 49,56</t>
+          <t>47,42; 49,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,73; 48,79</t>
+          <t>46,77; 48,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,38; 55,61</t>
+          <t>53,84; 55,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,44; 55,9</t>
+          <t>49,41; 55,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,72; 51,94</t>
+          <t>49,81; 51,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,59; 54,43</t>
+          <t>52,6; 53,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,91; 53,43</t>
+          <t>48,89; 52,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,67; 50,23</t>
+          <t>48,71; 50,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>61,56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59,16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>62,59</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>63,62</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>61,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>62,59</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>59,16</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>68,17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>69,79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>70,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>72,41</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>68,29</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>70,54</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>69,79</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>65,71</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67,04</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>68,84</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>65,97</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>67,04</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>65,01</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>59,06; 63,64</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55,38; 62,68</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60,41; 64,65</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>61,93; 65,21</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>59,06; 64,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>60,41; 64,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>55,38; 62,68</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>66,46; 69,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66,13; 72,73</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68,99; 71,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>71,16; 73,9</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>66,42; 69,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>68,99; 71,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>66,13; 72,73</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>64,28; 66,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62,42; 67,5</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65,82; 68,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>67,69; 69,96</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>64,21; 67,18</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>65,82; 68,27</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>62,42; 67,5</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>45,18</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>45,12</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46,84</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>50,59</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>45,97</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>46,84</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>45,12</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>45,25</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>48,75</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,13</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>53,19</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>48,26</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>47,13</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>48,75</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>45,22</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46,93</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,99</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>51,87</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>47,11</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>46,99</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>46,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>44,02; 46,32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43,78; 46,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45,97; 47,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>49,81; 51,46</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>44,25; 48,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>45,97; 47,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>43,78; 46,4</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>44,17; 46,26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47,36; 50,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>46,15; 48,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>52,39; 53,89</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>44,5; 55,93</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>46,15; 48,05</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>47,36; 50,1</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>44,36; 45,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45,99; 47,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46,32; 47,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>51,31; 52,39</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>44,97; 51,78</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>46,32; 47,61</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>45,99; 47,94</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>49,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46,97</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46,6</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>48,25</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>49,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>46,6</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>46,97</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>46,43</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45,48</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44,18</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>47,25</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>46,3</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>44,18</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>45,48</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>47,84</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46,14</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45,33</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>47,69</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>47,98</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>45,33</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>46,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>47,49; 50,69</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45,63; 48,36</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45,47; 47,71</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>47,14; 49,49</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>47,86; 51,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>45,47; 47,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>45,63; 48,36</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>45,1; 47,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44,37; 46,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43,09; 45,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>46,35; 48,08</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>44,94; 47,62</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>43,09; 45,32</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>44,37; 46,74</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>46,76; 48,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45,26; 47,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>44,54; 46,13</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>47,05; 48,4</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>46,87; 49,06</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>44,54; 46,13</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>45,26; 47,03</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>48,22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47,76</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49,11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>51,52</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>48,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49,11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>47,76</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>50,04</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50,87</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50,44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>54,42</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>51,46</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>50,44</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50,87</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>49,16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49,4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49,8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>53,04</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>50,03</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>49,8</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>49,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>47,33; 49,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46,77; 48,82</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48,41; 49,79</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>50,92; 52,13</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>47,42; 49,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>48,41; 49,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>46,77; 48,82</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>49,26; 50,9</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49,81; 51,92</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49,7; 51,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>53,84; 55,02</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>49,41; 55,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>49,7; 51,27</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>49,81; 51,92</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>48,54; 49,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48,71; 50,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49,33; 50,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>52,6; 53,45</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>48,89; 52,58</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>49,33; 50,28</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>48,71; 50,18</t>
         </is>
       </c>
     </row>
